--- a/RPN_ProjectManagement.xlsx
+++ b/RPN_ProjectManagement.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cubess-my.sharepoint.com/personal/bert_paelinckx_cubess_be/Documents/Documents/_Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC6E14A-CDC8-4D09-ABE9-399EC11214EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{1CC6E14A-CDC8-4D09-ABE9-399EC11214EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC011D3-265D-4377-B7C5-8A021B62CCBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{892AD986-C344-48F0-A980-BC47C0218C8F}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{892AD986-C344-48F0-A980-BC47C0218C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="RPN" sheetId="1" r:id="rId1"/>
+    <sheet name="WSJF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>S</t>
   </si>
@@ -81,6 +82,37 @@
   </si>
   <si>
     <t>Manuele check</t>
+  </si>
+  <si>
+    <t>BusinessValue</t>
+  </si>
+  <si>
+    <t>(Fibonaci)</t>
+  </si>
+  <si>
+    <t>TimeCriticality</t>
+  </si>
+  <si>
+    <t>RiskReduction
+OpportunityEnablement</t>
+  </si>
+  <si>
+    <t>CostOfDelay</t>
+  </si>
+  <si>
+    <t>JobDuration</t>
+  </si>
+  <si>
+    <t>WSJF</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -96,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,9 +160,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC322892-E654-4F55-AB26-7615F41A5496}">
   <dimension ref="C2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,4 +581,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916442A8-E9E4-43A2-A745-BD434AE3A808}">
+  <dimension ref="C1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>